--- a/Repasos/repasoexcel.xlsx
+++ b/Repasos/repasoexcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\epile\Desktop\ITESO\6to Semestre\Administración de Riesgos\Administracion_de_Riesgos\Repasos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajos Iteso\6to Semestre\Administración de Riesgos\Administracion_de_Riesgos\Repasos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A70AC8CB-D345-4FD5-BE3A-B63D8DFD7C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BE94BB-4A9F-48EC-AE94-CF6D25D49881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_Equities" sheetId="1" r:id="rId1"/>
@@ -4931,13 +4931,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L237"/>
   <sheetViews>
-    <sheetView topLeftCell="K13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView zoomScale="108" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -8988,20 +8988,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1516EC22-7CBD-674E-9A2A-E8B714A31F08}">
   <dimension ref="A1:AB511"/>
   <sheetViews>
-    <sheetView topLeftCell="E4" zoomScale="93" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView topLeftCell="K19" zoomScale="93" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -24961,15 +24961,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D543C37-3D42-A545-B2EE-F45FF1CB1ED7}">
   <dimension ref="A1:O247"/>
   <sheetViews>
-    <sheetView topLeftCell="I4" zoomScale="168" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -31404,16 +31404,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCFFFD9-611C-8D4C-BE49-9DBDB1996640}">
   <dimension ref="B2:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" ht="15.75">
+    <row r="2" spans="2:12" ht="15.6">
       <c r="B2" s="55" t="s">
         <v>17</v>
       </c>
